--- a/back_end/game.xlsx
+++ b/back_end/game.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\database back end\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cies9\Documents\Data\college\2023Spring\DataBase\Final Project\final\fin\2023-NYCU-Intro-Database-Project\back_end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F56DFB1-D705-407B-8BDD-BA00C67C61A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAA56CD-A4C6-4DB4-BD45-A356490CB45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,35 @@
   </si>
   <si>
     <t>85 GB</t>
+  </si>
+  <si>
+    <t>Dead Cells</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nvidia 450 GTS</t>
+  </si>
+  <si>
+    <t>Radeon HD 5750</t>
+  </si>
+  <si>
+    <t>500 MB</t>
+  </si>
+  <si>
+    <t>Windows 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel i5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'OS': 'Windows 7+', 'Processor': 'Intel i5+', 'Memory': '2 GB RAM', 'Graphics': 'Nvidia 450 GTS / Radeon HD 5750 or better', 'Storage': '500 MB'}, {'OS': 'Windows 7 or later', 'Memory': '2 GB RAM', 'Graphics': 'Intel Graphics 4000, 2GB VRAM'}, {'OS': 'Windows 7 (with Aero), 8.1, 10, 11', 'Processor': '1.66 GHz Intel i5 or equivalent', 'Memory': '1024 MB RAM', 'Graphics': 'HD Graphics 4000 or above', 'Storage': '512 MB'}, {'OS': 'Windows 7 64bit or later', 'Processor': 'Intel Core™ Duo or faster', 'Memory': '2 GB RAM', 'Graphics': 'DirectX® 9 Compatible Graphics Card'}, {'OS': 'Windows 7/8/10', 'Processor': 'Intel Core i3-2100 or AMD equivalent', 'Memory': '4 GB RAM', 'Graphics': 'Intel® HD Graphics 3000', 'Storage': '5 GB'}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -439,13 +468,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -473,7 +502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -504,7 +533,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -536,30 +565,33 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -571,7 +603,6 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -595,8 +626,14 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>